--- a/My2Project/bug.tracking.systems.xlsx
+++ b/My2Project/bug.tracking.systems.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Bugzilla</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>1. Широкий спектр возможностей для управления проектами и баг трекинга</t>
+  </si>
+  <si>
+    <t>труляляшки труляля</t>
   </si>
 </sst>
 </file>
@@ -112,20 +115,20 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,9 +431,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -454,121 +457,130 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="2"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="2"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="2"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="2"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="2"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="2"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="2"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="2"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="1"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="1"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="1"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="1"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="C2:C6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="B7:B11"/>
     <mergeCell ref="C7:C11"/>
@@ -577,10 +589,6 @@
     <mergeCell ref="B12:B16"/>
     <mergeCell ref="C12:C16"/>
     <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="C2:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
